--- a/外科学思维导图/外科学汇总.xlsx
+++ b/外科学思维导图/外科学汇总.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>病证系统</t>
   </si>
@@ -130,7 +130,20 @@
     <t>1、妊娠5个月后，常清洗乳头  2、保持清洁和心情舒畅   3、不使婴儿含乳而睡</t>
   </si>
   <si>
-    <t>乳癖</t>
+    <r>
+      <t xml:space="preserve">乳癖
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乳腺增生</t>
+    </r>
   </si>
   <si>
     <t>相当于乳腺增生，疼痛并有肿块，与月经周期有关</t>
@@ -142,7 +155,7 @@
     <t>临床表现</t>
   </si>
   <si>
-    <t>多发于25-45，以胀痛为主，多位于乳房的外上象限</t>
+    <t>多发于25-45，以胀痛为主，多位于乳房的外上象限，边界不清楚</t>
   </si>
   <si>
     <t>内治法</t>
@@ -176,6 +189,134 @@
   </si>
   <si>
     <t>脉沉细</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">乳核
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纤维腺瘤</t>
+    </r>
+  </si>
+  <si>
+    <t>良性肿瘤，发于20-25岁，质地坚硬，边界清楚</t>
+  </si>
+  <si>
+    <t>辨病</t>
+  </si>
+  <si>
+    <t>肝气郁结</t>
+  </si>
+  <si>
+    <t>逍遥散</t>
+  </si>
+  <si>
+    <t>肿块较小，不红不热不疼，发展缓慢</t>
+  </si>
+  <si>
+    <t>苔薄白</t>
+  </si>
+  <si>
+    <t>脉弦</t>
+  </si>
+  <si>
+    <t>血瘀痰凝</t>
+  </si>
+  <si>
+    <t>逍遥散+桃红四物汤</t>
+  </si>
+  <si>
+    <t>肿块较大，坚硬胖胸闷牵疼</t>
+  </si>
+  <si>
+    <t>苔暗红</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">乳岩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乳腺癌</t>
+    </r>
+  </si>
+  <si>
+    <t>恶性肿瘤，不痛、不热、推之不动，质地坚硬的肿块。好发于40-60岁。中药多用于晚期患者</t>
+  </si>
+  <si>
+    <t>论治</t>
+  </si>
+  <si>
+    <t>神效瓜萎+开郁散</t>
+  </si>
+  <si>
+    <t>情志抑郁，胸闷胁胀。肿块皮色不变，边界不表</t>
+  </si>
+  <si>
+    <t>二仙汤+开郁散</t>
+  </si>
+  <si>
+    <t>经事紊乱，素有经前胀痛</t>
+  </si>
+  <si>
+    <t>正虚毒炽</t>
+  </si>
+  <si>
+    <t>八珍汤</t>
+  </si>
+  <si>
+    <t>肿块扩大，溃后愈坚。精神萎靡面白食少</t>
+  </si>
+  <si>
+    <t>苔黄</t>
+  </si>
+  <si>
+    <t>气血两虚</t>
+  </si>
+  <si>
+    <t>人参养荣汤</t>
+  </si>
+  <si>
+    <t>术后或化疗后，形体消瘦、神疲乏力</t>
+  </si>
+  <si>
+    <t>舌淡苔薄</t>
+  </si>
+  <si>
+    <t>脾胃虚弱</t>
+  </si>
+  <si>
+    <t>参苓白术散+理中汤</t>
+  </si>
+  <si>
+    <t>治疗后，神疲乏力，食欲不振</t>
+  </si>
+  <si>
+    <t>瘿</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>颈前喉结两侧肿块性疾病，相当于甲状腺病。在致病因素作用下，导致脏腑经络功能失调，气滞、血瘀、痰凝于颈部</t>
+  </si>
+  <si>
+    <t>气瘿</t>
   </si>
 </sst>
 </file>
@@ -221,13 +362,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -417,6 +551,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -660,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -710,6 +851,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -734,9 +906,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -747,11 +917,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </top>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -884,137 +1056,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,115 +1214,151 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,40 +1370,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,7 +1412,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1213,13 +1421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1228,16 +1436,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,7 +1766,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -1603,23 +1811,23 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1849,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -1661,7 +1869,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
         <v>23</v>
@@ -1681,83 +1889,83 @@
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:8">
       <c r="A10" s="8"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="3"/>
@@ -1765,22 +1973,22 @@
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1801,8 +2009,8 @@
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1821,8 +2029,8 @@
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:8">
       <c r="A15" s="8"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1831,328 +2039,398 @@
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="8"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="8"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="8"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="8"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="B28" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
       <c r="A29" s="36"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="36"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="36"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="36"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="36"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="42"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="35"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="43"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="35"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="35"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="43"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="35"/>
+      <c r="F47" s="39"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="43"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="35"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="43"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2160,539 +2438,539 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" customHeight="1" spans="1:8">
-      <c r="A50" s="43"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="35"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="43"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="35"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="35"/>
+      <c r="F51" s="39"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="43"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="35"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="35"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="43"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="35"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="35"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="43"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="35"/>
+      <c r="F54" s="39"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="43"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="35"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="35"/>
+      <c r="F55" s="39"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="43"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="35"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="35"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
-      <c r="A57" s="43"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
     </row>
     <row r="58" customHeight="1" spans="1:8">
-      <c r="A58" s="43"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" customHeight="1" spans="1:8">
-      <c r="A59" s="43"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" customHeight="1" spans="1:8">
-      <c r="A60" s="43"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" customHeight="1" spans="1:8">
-      <c r="A61" s="43"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" customHeight="1" spans="1:8">
-      <c r="A62" s="43"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="43"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" customHeight="1" spans="1:8">
-      <c r="A64" s="43"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" customHeight="1" spans="1:8">
-      <c r="A65" s="43"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="35"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" customHeight="1" spans="1:8">
-      <c r="A66" s="43"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="35"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="35"/>
+      <c r="F66" s="39"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A67" s="43"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="35"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A68" s="43"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="35"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
     <row r="69" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A69" s="43"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="35"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="35"/>
+      <c r="F69" s="39"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A70" s="43"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="35"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="35"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A71" s="50"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="35"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="35"/>
+      <c r="F71" s="39"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" ht="19.5" customHeight="1"/>
     <row r="73" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
     </row>
     <row r="74" customHeight="1" spans="1:8">
-      <c r="A74" s="56"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
     </row>
     <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="56"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="56"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
-      <c r="A77" s="56"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" customHeight="1" spans="1:8">
-      <c r="A78" s="56"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" customHeight="1" spans="1:8">
-      <c r="A79" s="56"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
     </row>
     <row r="80" customHeight="1" spans="1:8">
-      <c r="A80" s="56"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
     </row>
     <row r="81" customHeight="1" spans="1:8">
-      <c r="A81" s="56"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="61"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="73"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="56"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
     </row>
     <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="56"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
     </row>
     <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="56"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
     </row>
     <row r="85" customHeight="1" spans="1:8">
-      <c r="A85" s="56"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
     </row>
     <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="56"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
     </row>
     <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="56"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
     </row>
     <row r="88" customHeight="1" spans="1:8">
-      <c r="A88" s="56"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
     </row>
     <row r="89" customHeight="1" spans="1:8">
-      <c r="A89" s="56"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
     </row>
     <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="56"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="56"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="56"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" customHeight="1" spans="1:8">
-      <c r="A93" s="56"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
     </row>
     <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="56"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
     </row>
     <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="56"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
     </row>
     <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="56"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="46"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="58"/>
     </row>
     <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="56"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="46"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="58"/>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="56"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="56"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
     </row>
     <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="56"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
     </row>
     <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="56"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
     </row>
     <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="56"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="56"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="56"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2701,8 +2979,8 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="56"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2711,8 +2989,8 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="56"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2721,8 +2999,8 @@
       <c r="H106" s="3"/>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="56"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2731,8 +3009,8 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="56"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2741,8 +3019,8 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="56"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2751,8 +3029,8 @@
       <c r="H109" s="3"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="56"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -2761,8 +3039,8 @@
       <c r="H110" s="3"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="56"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -2771,8 +3049,8 @@
       <c r="H111" s="3"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="56"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2781,8 +3059,8 @@
       <c r="H112" s="3"/>
     </row>
     <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="56"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="68"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2791,8 +3069,8 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="66"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -2801,7 +3079,7 @@
       <c r="H114" s="3"/>
     </row>
     <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="67"/>
+      <c r="A116" s="79"/>
       <c r="B116" s="1"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -2811,7 +3089,7 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="67"/>
+      <c r="A117" s="79"/>
       <c r="B117" s="1"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2821,7 +3099,7 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="67"/>
+      <c r="A118" s="79"/>
       <c r="B118" s="1"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -2831,7 +3109,7 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="67"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="1"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -2841,7 +3119,7 @@
       <c r="H119" s="3"/>
     </row>
     <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="67"/>
+      <c r="A120" s="79"/>
       <c r="B120" s="1"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -2851,17 +3129,17 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="67"/>
+      <c r="A121" s="79"/>
       <c r="B121" s="1"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="35"/>
+      <c r="E121" s="39"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" customHeight="1" spans="1:8">
-      <c r="A122" s="67"/>
+      <c r="A122" s="79"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -2871,7 +3149,7 @@
       <c r="H122" s="3"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="67"/>
+      <c r="A123" s="79"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -2881,7 +3159,7 @@
       <c r="H123" s="3"/>
     </row>
     <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="67"/>
+      <c r="A124" s="79"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -2891,7 +3169,7 @@
       <c r="H124" s="3"/>
     </row>
     <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="67"/>
+      <c r="A125" s="79"/>
       <c r="B125" s="1"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -2901,7 +3179,7 @@
       <c r="H125" s="3"/>
     </row>
     <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="67"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="1"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -2911,7 +3189,7 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="67"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="1"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -2921,27 +3199,27 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="67"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="1"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="35"/>
+      <c r="E128" s="39"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" customHeight="1" spans="1:8">
-      <c r="A129" s="67"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="1"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="35"/>
+      <c r="E129" s="39"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="68"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="1"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -2951,7 +3229,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="68"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="1"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -2961,7 +3239,7 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="68"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="1"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -2971,7 +3249,7 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="68"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="1"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -2981,7 +3259,7 @@
       <c r="H134" s="3"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="68"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -2991,137 +3269,137 @@
       <c r="H135" s="3"/>
     </row>
     <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="68"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="1"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="35"/>
+      <c r="E136" s="39"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="68"/>
+      <c r="A137" s="80"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="69"/>
-      <c r="H137" s="69"/>
+      <c r="D137" s="81"/>
+      <c r="E137" s="81"/>
+      <c r="F137" s="81"/>
+      <c r="G137" s="81"/>
+      <c r="H137" s="81"/>
     </row>
     <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="68"/>
+      <c r="A138" s="80"/>
       <c r="B138" s="1"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="69"/>
-      <c r="G138" s="69"/>
-      <c r="H138" s="69"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="81"/>
+      <c r="G138" s="81"/>
+      <c r="H138" s="81"/>
     </row>
     <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="68"/>
+      <c r="A139" s="80"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="69"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="81"/>
+      <c r="F139" s="81"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="81"/>
     </row>
     <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="68"/>
+      <c r="A140" s="80"/>
       <c r="B140" s="1"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="69"/>
-      <c r="G140" s="69"/>
-      <c r="H140" s="69"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81"/>
+      <c r="H140" s="81"/>
     </row>
     <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="68"/>
+      <c r="A141" s="80"/>
       <c r="B141" s="1"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="69"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="81"/>
+      <c r="F141" s="81"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="81"/>
     </row>
     <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="68"/>
+      <c r="A142" s="80"/>
       <c r="B142" s="1"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="69"/>
-      <c r="E142" s="69"/>
-      <c r="F142" s="69"/>
-      <c r="G142" s="69"/>
-      <c r="H142" s="69"/>
+      <c r="D142" s="81"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
+      <c r="G142" s="81"/>
+      <c r="H142" s="81"/>
     </row>
     <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="70"/>
+      <c r="A143" s="82"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
+      <c r="H143" s="81"/>
     </row>
     <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="70"/>
+      <c r="A144" s="82"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="69"/>
-      <c r="G144" s="69"/>
-      <c r="H144" s="69"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="81"/>
     </row>
     <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="70"/>
+      <c r="A145" s="82"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="69"/>
-      <c r="E145" s="69"/>
-      <c r="F145" s="69"/>
-      <c r="G145" s="69"/>
-      <c r="H145" s="69"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
     </row>
     <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="70"/>
+      <c r="A146" s="82"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="69"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="69"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="81"/>
+      <c r="H146" s="81"/>
     </row>
     <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="70"/>
+      <c r="A147" s="82"/>
       <c r="B147" s="1"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="69"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="81"/>
+      <c r="H147" s="81"/>
     </row>
     <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="70"/>
+      <c r="A148" s="82"/>
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="69"/>
-      <c r="H148" s="69"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="81"/>
+      <c r="H148" s="81"/>
     </row>
     <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="71"/>
+      <c r="A149" s="83"/>
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -3131,7 +3409,7 @@
       <c r="H149" s="3"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="71"/>
+      <c r="A150" s="83"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -3141,7 +3419,7 @@
       <c r="H150" s="3"/>
     </row>
     <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="71"/>
+      <c r="A151" s="83"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -3151,7 +3429,7 @@
       <c r="H151" s="3"/>
     </row>
     <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="71"/>
+      <c r="A152" s="83"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -3161,7 +3439,7 @@
       <c r="H152" s="3"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="71"/>
+      <c r="A153" s="83"/>
       <c r="B153" s="1"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -3171,7 +3449,7 @@
       <c r="H153" s="3"/>
     </row>
     <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="71"/>
+      <c r="A154" s="83"/>
       <c r="B154" s="1"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -3181,7 +3459,7 @@
       <c r="H154" s="3"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
-      <c r="A155" s="71"/>
+      <c r="A155" s="83"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -3191,17 +3469,17 @@
       <c r="H155" s="3"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
-      <c r="A156" s="71"/>
+      <c r="A156" s="83"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="35"/>
+      <c r="E156" s="39"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
     <row r="157" customHeight="1" spans="1:8">
-      <c r="A157" s="71"/>
+      <c r="A157" s="83"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -3211,7 +3489,7 @@
       <c r="H157" s="3"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="71"/>
+      <c r="A158" s="83"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -3221,7 +3499,7 @@
       <c r="H158" s="3"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="71"/>
+      <c r="A159" s="83"/>
       <c r="B159" s="1"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -3231,7 +3509,7 @@
       <c r="H159" s="3"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="71"/>
+      <c r="A160" s="83"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -3241,7 +3519,7 @@
       <c r="H160" s="3"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="71"/>
+      <c r="A161" s="83"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -3251,7 +3529,7 @@
       <c r="H161" s="3"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="71"/>
+      <c r="A162" s="83"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -3261,7 +3539,7 @@
       <c r="H162" s="3"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="71"/>
+      <c r="A163" s="83"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -3271,7 +3549,7 @@
       <c r="H163" s="3"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="71"/>
+      <c r="A164" s="83"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -3281,7 +3559,7 @@
       <c r="H164" s="3"/>
     </row>
     <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="71"/>
+      <c r="A165" s="83"/>
       <c r="B165" s="1"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -3291,7 +3569,7 @@
       <c r="H165" s="3"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="71"/>
+      <c r="A166" s="83"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -3301,7 +3579,7 @@
       <c r="H166" s="3"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="71"/>
+      <c r="A167" s="83"/>
       <c r="B167" s="1"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -3311,7 +3589,7 @@
       <c r="H167" s="3"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="71"/>
+      <c r="A168" s="83"/>
       <c r="B168" s="1"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -3321,87 +3599,87 @@
       <c r="H168" s="3"/>
     </row>
     <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="72"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="69"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="69"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="81"/>
+      <c r="F169" s="81"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="81"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="72"/>
-      <c r="B170" s="12"/>
+      <c r="A170" s="84"/>
+      <c r="B170" s="10"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="39"/>
     </row>
     <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="72"/>
-      <c r="B171" s="12"/>
+      <c r="A171" s="84"/>
+      <c r="B171" s="10"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
+      <c r="G171" s="39"/>
+      <c r="H171" s="39"/>
     </row>
     <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="72"/>
-      <c r="B172" s="12"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="10"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="73"/>
+      <c r="A173" s="85"/>
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="35"/>
-      <c r="F173" s="35"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="74"/>
+      <c r="A174" s="86"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="35"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="39"/>
+      <c r="G174" s="39"/>
+      <c r="H174" s="39"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="74"/>
+      <c r="A175" s="86"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="35"/>
-      <c r="F175" s="35"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="74"/>
-      <c r="B176" s="12"/>
+      <c r="A176" s="86"/>
+      <c r="B176" s="10"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="35"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="35"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="83">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="E6:H6"/>
@@ -3410,6 +3688,9 @@
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C27:H27"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:E74"/>
@@ -3420,7 +3701,7 @@
     <mergeCell ref="C96:E96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="C97:E97"/>
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A2:A25"/>
     <mergeCell ref="A27:A43"/>
     <mergeCell ref="A45:A71"/>
     <mergeCell ref="A73:A114"/>
@@ -3432,10 +3713,8 @@
     <mergeCell ref="A173:A176"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B25"/>
     <mergeCell ref="B45:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B64"/>
@@ -3466,15 +3745,8 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C25"/>
     <mergeCell ref="C45:C50"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
